--- a/SIV.Api/ExcelTemplate/故障预警导出模板.xlsx
+++ b/SIV.Api/ExcelTemplate/故障预警导出模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Funi-Api\SIV.Api\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52758FF8-8BA7-491A-82BA-C024EA1F8EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85E1861-347D-4692-9057-80B0C41305F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21972" yWindow="2484" windowWidth="28800" windowHeight="15348" xr2:uid="{78CEE066-1456-4706-9E78-070A7063D5B1}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15943" xr2:uid="{78CEE066-1456-4706-9E78-070A7063D5B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,36 +25,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+  <si>
+    <t>&amp;=Data.Id</t>
+  </si>
+  <si>
+    <t>&amp;=Data.CreateTime</t>
+  </si>
+  <si>
+    <t>&amp;=Data.UpdateTime</t>
+  </si>
+  <si>
+    <t>&amp;=Data.Name</t>
+  </si>
+  <si>
+    <t>&amp;=Data.LineId</t>
+  </si>
+  <si>
+    <t>&amp;=Data.TrainNumber</t>
+  </si>
+  <si>
+    <t>&amp;=Data.TrainModel</t>
+  </si>
+  <si>
+    <t>&amp;=Data.SubSystem</t>
+  </si>
+  <si>
+    <t>&amp;=Data.CarriageNumber</t>
+  </si>
+  <si>
+    <t>&amp;=Data.DeviceCode</t>
+  </si>
+  <si>
+    <t>&amp;=Data.Code</t>
+  </si>
+  <si>
+    <t>&amp;=Data.Type</t>
+  </si>
+  <si>
+    <t>&amp;=Data.Grade</t>
+  </si>
+  <si>
+    <t>&amp;=Data.State</t>
+  </si>
+  <si>
+    <t>&amp;=Data.EndTime</t>
+  </si>
+  <si>
+    <t>&amp;=Data.DiagnoseLogic</t>
+  </si>
+  <si>
+    <t>&amp;=Data.Solution</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
   </si>
   <si>
     <t>线路</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&amp;=&amp;={-1}</t>
-  </si>
-  <si>
-    <t>&amp;=FaultWarn.xlh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=FaultWarn.lch</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=FaultWarn.cxh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=FaultWarn.TypeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列车号</t>
+    <t>车号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -62,70 +113,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>事件类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障部位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发生时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解除时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>司机解决建议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回库检修建议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=FaultWarn.HvacTypeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=FaultWarn.FaultName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=FaultWarn.StateName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=FaultWarn.createtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=FaultWarn.updatetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=FaultWarn.DriverSln</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Solution</t>
+    <t>设备号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预警码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诊断逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作处置建议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="182" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,13 +171,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -179,14 +199,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -503,99 +532,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61861786-1A4B-4448-9DC8-6D41681AC9B3}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.125" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="6" max="6" width="15.875" customWidth="1"/>
-    <col min="7" max="7" width="13.25" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
-    <col min="9" max="9" width="22.875" customWidth="1"/>
-    <col min="10" max="10" width="15.75" customWidth="1"/>
-    <col min="11" max="11" width="21.25" customWidth="1"/>
-    <col min="12" max="12" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="20.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.2109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.35546875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
